--- a/xlsx_file/test.xlsx
+++ b/xlsx_file/test.xlsx
@@ -21,6 +21,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t xml:space="preserve">A_i</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_{BF}</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -118,10 +129,10 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="A1:D7"/>
+      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -176,10 +187,10 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="A1:D7"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -380,10 +391,10 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -502,10 +513,10 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -592,20 +603,20 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:D7"/>
+      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>5</v>
+      <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>1</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>6</v>
@@ -660,9 +671,6 @@
       <c r="B5" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C5" s="0" t="n">
-        <v>9</v>
-      </c>
       <c r="D5" s="0" t="n">
         <v>10</v>
       </c>
@@ -670,9 +678,6 @@
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>8</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>9</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>10</v>

--- a/xlsx_file/test.xlsx
+++ b/xlsx_file/test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t xml:space="preserve">3 0.3</t>
+  </si>
   <si>
     <t xml:space="preserve">A_i</t>
   </si>
@@ -104,9 +107,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -128,47 +139,41 @@
   </sheetPr>
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="n">
+      <c r="A1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="C1" s="0" t="n">
-        <v>3</v>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B2" s="0" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0.3</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="B3" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="0" t="n">
-        <f aca="false">A3+B3</f>
-        <v>9</v>
-      </c>
+      <c r="B3" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B3:C3"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -190,7 +195,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -394,7 +399,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -516,7 +521,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -602,21 +607,21 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I13" activeCellId="0" sqref="I13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>6</v>
@@ -668,9 +673,10 @@
       <c r="A5" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="B5" s="0" t="n">
-        <v>8</v>
-      </c>
+      <c r="B5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="0" t="n">
         <v>10</v>
       </c>
@@ -701,6 +707,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:C5"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/xlsx_file/test.xlsx
+++ b/xlsx_file/test.xlsx
@@ -24,10 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t xml:space="preserve">3 0.3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t xml:space="preserve">A_i</t>
   </si>
@@ -107,16 +104,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -137,42 +138,63 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K23" activeCellId="0" sqref="K23"/>
+      <selection pane="topLeft" activeCell="F10" activeCellId="0" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
+      <c r="B1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C1" s="3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>4</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="B3" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1"/>
+        <v>8</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -195,7 +217,7 @@
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -399,7 +421,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -521,7 +543,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
@@ -611,17 +633,17 @@
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="n">
         <v>3</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="0" t="n">
         <v>6</v>
